--- a/dashboard_creation/Dashboard.xlsx
+++ b/dashboard_creation/Dashboard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,2320 +497,2358 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B2" t="n">
-        <v>2.755252570979569</v>
+        <v>3.285089589726697</v>
       </c>
       <c r="C2" t="n">
-        <v>8.588104877825529</v>
+        <v>7.917333575563769</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.9997490009044095</v>
+        <v>-0.1515240078130952</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.318128058305656</v>
+        <v>-1.883540341807358</v>
       </c>
       <c r="F2" t="n">
-        <v>8.025480389595032</v>
+        <v>9.167358815670013</v>
       </c>
       <c r="G2" t="n">
-        <v>2.664992669550213</v>
+        <v>3.268607284596178</v>
       </c>
       <c r="H2" t="n">
-        <v>8.306765334619181</v>
+        <v>7.877609877244966</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.9669980120382063</v>
+        <v>-0.1507637652494876</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.945093541270408</v>
+        <v>3.881856388353055</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.044232424142641</v>
+        <v>-6.80400656228846</v>
       </c>
       <c r="L2" t="n">
-        <v>5.01543402671814</v>
+        <v>8.07330322265625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B3" t="n">
-        <v>5.46453115983095</v>
+        <v>6.527665142616208</v>
       </c>
       <c r="C3" t="n">
-        <v>16.3845391446805</v>
+        <v>15.27822125418597</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.962458580677453</v>
+        <v>-0.2907253787696981</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.138971292906723</v>
+        <v>-3.494333605427194</v>
       </c>
       <c r="F3" t="n">
-        <v>15.74764043092728</v>
+        <v>18.02082741260529</v>
       </c>
       <c r="G3" t="n">
-        <v>5.22944814093343</v>
+        <v>6.466614902938057</v>
       </c>
       <c r="H3" t="n">
-        <v>15.67967960362973</v>
+        <v>15.13533110142148</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.878034011741283</v>
+        <v>-0.2880063584666288</v>
       </c>
       <c r="J3" t="n">
-        <v>-8.753415186097419</v>
+        <v>1.82433857011958</v>
       </c>
       <c r="K3" t="n">
-        <v>0.008781852903227971</v>
+        <v>-7.253070086129674</v>
       </c>
       <c r="L3" t="n">
-        <v>10.28646039962769</v>
+        <v>15.88520812988281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B4" t="n">
-        <v>8.105903906391141</v>
+        <v>9.700115708522628</v>
       </c>
       <c r="C4" t="n">
-        <v>23.48305040986538</v>
+        <v>22.11945623784456</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.871497094671384</v>
+        <v>-0.4128944739495893</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.550720618801932</v>
+        <v>-4.848520803277733</v>
       </c>
       <c r="F4" t="n">
-        <v>23.1667366027832</v>
+        <v>26.55815666913986</v>
       </c>
       <c r="G4" t="n">
-        <v>7.701324314756554</v>
+        <v>9.575565174314939</v>
       </c>
       <c r="H4" t="n">
-        <v>22.3109710150348</v>
+        <v>21.83544002880217</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.728175740833712</v>
+        <v>-0.4075928642732594</v>
       </c>
       <c r="J4" t="n">
-        <v>-12.04317274164832</v>
+        <v>-5.806086921853121</v>
       </c>
       <c r="K4" t="n">
-        <v>0.529162567745006</v>
+        <v>-1.729864784666508</v>
       </c>
       <c r="L4" t="n">
-        <v>15.77010941505432</v>
+        <v>23.46746063232422</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B5" t="n">
-        <v>10.66246506659041</v>
+        <v>12.78120558623636</v>
       </c>
       <c r="C5" t="n">
-        <v>29.95353398112397</v>
+        <v>28.47129925499688</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.713091007831708</v>
+        <v>-0.5136931372627452</v>
       </c>
       <c r="E5" t="n">
-        <v>-6.619293583229076</v>
+        <v>-5.960994335463104</v>
       </c>
       <c r="F5" t="n">
-        <v>30.28361445665359</v>
+        <v>34.77781736850739</v>
       </c>
       <c r="G5" t="n">
-        <v>10.08502655826333</v>
+        <v>12.58277725562216</v>
       </c>
       <c r="H5" t="n">
-        <v>28.33136463537102</v>
+        <v>28.02928208036742</v>
       </c>
       <c r="I5" t="n">
-        <v>-3.51200413725773</v>
+        <v>-0.5057180467294402</v>
       </c>
       <c r="J5" t="n">
-        <v>-12.08501115616109</v>
+        <v>-9.473516492020927</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.393737462944404</v>
+        <v>0.2149077467061016</v>
       </c>
       <c r="L5" t="n">
-        <v>21.42563843727112</v>
+        <v>30.84773254394531</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B6" t="n">
-        <v>13.12120457073863</v>
+        <v>15.75457001144973</v>
       </c>
       <c r="C6" t="n">
-        <v>35.85080324176099</v>
+        <v>34.35976712425025</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.475989753468895</v>
+        <v>-0.589114392502195</v>
       </c>
       <c r="E6" t="n">
-        <v>-7.396313555017661</v>
+        <v>-6.846222305938113</v>
       </c>
       <c r="F6" t="n">
-        <v>37.09970450401306</v>
+        <v>42.67900043725967</v>
       </c>
       <c r="G6" t="n">
-        <v>12.3824108185826</v>
+        <v>15.4796783129725</v>
       </c>
       <c r="H6" t="n">
-        <v>33.83221193773886</v>
+        <v>33.76024490706483</v>
       </c>
       <c r="I6" t="n">
-        <v>-4.223967673731508</v>
+        <v>-0.5788353016838091</v>
       </c>
       <c r="J6" t="n">
-        <v>-8.193323856318347</v>
+        <v>-9.423096532565259</v>
       </c>
       <c r="K6" t="n">
-        <v>-6.582795513075803</v>
+        <v>-1.188041739792167</v>
       </c>
       <c r="L6" t="n">
-        <v>27.2145357131958</v>
+        <v>38.04994964599609</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B7" t="n">
-        <v>15.47219529006907</v>
+        <v>18.60765189109595</v>
       </c>
       <c r="C7" t="n">
-        <v>41.21975235124386</v>
+        <v>39.80805953410769</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.15119808231933</v>
+        <v>-0.6354564433106036</v>
       </c>
       <c r="E7" t="n">
-        <v>-7.923723229953072</v>
+        <v>-7.518637559789163</v>
       </c>
       <c r="F7" t="n">
-        <v>43.61702632904053</v>
+        <v>50.26161742210388</v>
       </c>
       <c r="G7" t="n">
-        <v>14.59355353798953</v>
+        <v>18.26062739650845</v>
       </c>
       <c r="H7" t="n">
-        <v>38.8789471360054</v>
+        <v>39.06565679456893</v>
       </c>
       <c r="I7" t="n">
-        <v>-4.858669606333579</v>
+        <v>-0.6236054611252716</v>
       </c>
       <c r="J7" t="n">
-        <v>-8.311281322075134</v>
+        <v>-4.851235475057074</v>
       </c>
       <c r="K7" t="n">
-        <v>-7.202028896358314</v>
+        <v>-6.756995165295422</v>
       </c>
       <c r="L7" t="n">
-        <v>33.10052084922791</v>
+        <v>45.09444808959961</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B8" t="n">
-        <v>17.70799266274854</v>
+        <v>21.33093031941356</v>
       </c>
       <c r="C8" t="n">
-        <v>46.09855780478731</v>
+        <v>44.83747991657093</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.731748817154248</v>
+        <v>-0.6493055392363891</v>
       </c>
       <c r="E8" t="n">
-        <v>-8.236616041994616</v>
+        <v>-7.992804862496705</v>
       </c>
       <c r="F8" t="n">
-        <v>49.83818560838699</v>
+        <v>57.5262998342514</v>
       </c>
       <c r="G8" t="n">
-        <v>16.71734054847584</v>
+        <v>20.92208559628607</v>
       </c>
       <c r="H8" t="n">
-        <v>43.51963005029914</v>
+        <v>43.97809090785335</v>
       </c>
       <c r="I8" t="n">
-        <v>-5.411093100137896</v>
+        <v>-0.6368604588090885</v>
       </c>
       <c r="J8" t="n">
-        <v>-5.171464322903</v>
+        <v>-4.867065177023756</v>
       </c>
       <c r="K8" t="n">
-        <v>-10.60487122550825</v>
+        <v>-7.397963667378841</v>
       </c>
       <c r="L8" t="n">
-        <v>39.04954195022583</v>
+        <v>51.99828720092773</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B9" t="n">
-        <v>19.82318310373862</v>
+        <v>23.9173478862259</v>
       </c>
       <c r="C9" t="n">
-        <v>50.52072961031287</v>
+        <v>49.46805008299789</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.212502895641747</v>
+        <v>-0.6275245697092844</v>
       </c>
       <c r="E9" t="n">
-        <v>-8.365034038304149</v>
+        <v>-8.283473415631612</v>
       </c>
       <c r="F9" t="n">
-        <v>55.76637578010559</v>
+        <v>64.4743999838829</v>
       </c>
       <c r="G9" t="n">
-        <v>18.75191837698277</v>
+        <v>23.46200814081557</v>
       </c>
       <c r="H9" t="n">
-        <v>47.79053863551978</v>
+        <v>48.52627470564889</v>
       </c>
       <c r="I9" t="n">
-        <v>-5.876772998876862</v>
+        <v>-0.6155777234632293</v>
       </c>
       <c r="J9" t="n">
-        <v>-6.634700818295123</v>
+        <v>-1.151647712963453</v>
       </c>
       <c r="K9" t="n">
-        <v>-9.001206383730835</v>
+        <v>-11.44570493201044</v>
       </c>
       <c r="L9" t="n">
-        <v>45.02977681159973</v>
+        <v>58.77535247802734</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B10" t="n">
-        <v>21.81403671758004</v>
+        <v>26.36187690686668</v>
       </c>
       <c r="C10" t="n">
-        <v>54.5164815714009</v>
+        <v>53.71893211224084</v>
       </c>
       <c r="D10" t="n">
-        <v>-6.589966680374216</v>
+        <v>-0.5672451271150242</v>
       </c>
       <c r="E10" t="n">
-        <v>-8.335174637838755</v>
+        <v>-8.405574163541715</v>
       </c>
       <c r="F10" t="n">
-        <v>61.40537697076797</v>
+        <v>71.10798972845078</v>
       </c>
       <c r="G10" t="n">
-        <v>20.69503881460975</v>
+        <v>25.87943278348967</v>
       </c>
       <c r="H10" t="n">
-        <v>51.71994146534372</v>
+        <v>52.73583128056641</v>
       </c>
       <c r="I10" t="n">
-        <v>-6.251920174289443</v>
+        <v>-0.5568640727212982</v>
       </c>
       <c r="J10" t="n">
-        <v>-14.10077749305779</v>
+        <v>-2.706552080547493</v>
       </c>
       <c r="K10" t="n">
-        <v>-1.050647309108927</v>
+        <v>-9.915007853414238</v>
       </c>
       <c r="L10" t="n">
-        <v>51.01163530349731</v>
+        <v>65.43684005737305</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B11" t="n">
-        <v>23.67823699386431</v>
+        <v>28.66118522427448</v>
       </c>
       <c r="C11" t="n">
-        <v>58.11366103734048</v>
+        <v>57.60871884509036</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.862121878992839</v>
+        <v>-0.4658616566786193</v>
       </c>
       <c r="E11" t="n">
-        <v>-8.170218785840795</v>
+        <v>-8.374180390286323</v>
       </c>
       <c r="F11" t="n">
-        <v>66.75955736637115</v>
+        <v>77.4298620223999</v>
       </c>
       <c r="G11" t="n">
-        <v>22.54432173840143</v>
+        <v>28.17413997763602</v>
       </c>
       <c r="H11" t="n">
-        <v>55.33068497294368</v>
+        <v>56.62976237630243</v>
       </c>
       <c r="I11" t="n">
-        <v>-6.533505154468463</v>
+        <v>-0.4579451764737369</v>
       </c>
       <c r="J11" t="n">
-        <v>-17.65367011789323</v>
+        <v>-11.1067250726676</v>
       </c>
       <c r="K11" t="n">
-        <v>3.279922686611684</v>
+        <v>-1.248127978820547</v>
       </c>
       <c r="L11" t="n">
-        <v>56.96775412559509</v>
+        <v>71.99110412597656</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B12" t="n">
-        <v>25.41466571329314</v>
+        <v>30.81337381365908</v>
       </c>
       <c r="C12" t="n">
-        <v>61.33839707871358</v>
+        <v>61.15563855919169</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.028263776347697</v>
+        <v>-0.3210266219853034</v>
       </c>
       <c r="E12" t="n">
-        <v>-7.890927055019073</v>
+        <v>-8.204456741046446</v>
       </c>
       <c r="F12" t="n">
-        <v>71.83387196063995</v>
+        <v>83.44352900981903</v>
       </c>
       <c r="G12" t="n">
-        <v>24.29745494400631</v>
+        <v>30.34646838321208</v>
       </c>
       <c r="H12" t="n">
-        <v>58.6420044304606</v>
+        <v>60.22896626688065</v>
       </c>
       <c r="I12" t="n">
-        <v>-6.719306260679208</v>
+        <v>-0.3161622058382942</v>
       </c>
       <c r="J12" t="n">
-        <v>-11.71180985000244</v>
+        <v>-15.02193218941645</v>
       </c>
       <c r="K12" t="n">
-        <v>-1.635340019385231</v>
+        <v>3.20697279447843</v>
       </c>
       <c r="L12" t="n">
-        <v>62.87300324440002</v>
+        <v>78.44431304931641</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B13" t="n">
-        <v>27.02323036184836</v>
+        <v>32.81776820229656</v>
       </c>
       <c r="C13" t="n">
-        <v>64.21555839472347</v>
+        <v>64.37769946729797</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.08884862380919</v>
+        <v>-0.1306460758431862</v>
       </c>
       <c r="E13" t="n">
-        <v>-7.516077816154219</v>
+        <v>-7.911596827496915</v>
       </c>
       <c r="F13" t="n">
-        <v>76.63386231660843</v>
+        <v>89.15322476625443</v>
       </c>
       <c r="G13" t="n">
-        <v>25.95234446962981</v>
+        <v>32.39712616181473</v>
       </c>
       <c r="H13" t="n">
-        <v>61.67080210078565</v>
+        <v>63.55253772264421</v>
       </c>
       <c r="I13" t="n">
-        <v>-6.807929285829981</v>
+        <v>-0.1289715185855182</v>
       </c>
       <c r="J13" t="n">
-        <v>-13.65893444570869</v>
+        <v>-8.130429253557205</v>
       </c>
       <c r="K13" t="n">
-        <v>1.548197332326826</v>
+        <v>-2.889985402355284</v>
       </c>
       <c r="L13" t="n">
-        <v>68.70448017120361</v>
+        <v>84.80027770996094</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B14" t="n">
-        <v>28.50472331395008</v>
+        <v>34.6747493852001</v>
       </c>
       <c r="C14" t="n">
-        <v>66.7690783450869</v>
+        <v>67.29278654184215</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.045346159560669</v>
+        <v>0.1071249848437823</v>
       </c>
       <c r="E14" t="n">
-        <v>-7.062797442740322</v>
+        <v>-7.510759189454845</v>
       </c>
       <c r="F14" t="n">
-        <v>81.16565805673599</v>
+        <v>94.56390172243118</v>
       </c>
       <c r="G14" t="n">
-        <v>27.50722739444926</v>
+        <v>34.32712583492241</v>
       </c>
       <c r="H14" t="n">
-        <v>64.43255739504981</v>
+        <v>66.61815852634052</v>
       </c>
       <c r="I14" t="n">
-        <v>-6.798800912717553</v>
+        <v>0.1060510284860549</v>
       </c>
       <c r="J14" t="n">
-        <v>-7.136389072964776</v>
+        <v>-10.22041868662738</v>
       </c>
       <c r="K14" t="n">
-        <v>-3.563079834944676</v>
+        <v>0.2301794882846444</v>
       </c>
       <c r="L14" t="n">
-        <v>74.44151496887207</v>
+        <v>91.06109619140625</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B15" t="n">
-        <v>29.8607052777427</v>
+        <v>36.3856160611831</v>
       </c>
       <c r="C15" t="n">
-        <v>69.02218743856436</v>
+        <v>69.9187280404974</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.900100197779203</v>
+        <v>0.3938879173339767</v>
       </c>
       <c r="E15" t="n">
-        <v>-6.546816549690107</v>
+        <v>-7.016997659273258</v>
       </c>
       <c r="F15" t="n">
-        <v>85.43597596883774</v>
+        <v>99.68123435974121</v>
       </c>
       <c r="G15" t="n">
-        <v>28.96075377193128</v>
+        <v>36.13767956899571</v>
       </c>
       <c r="H15" t="n">
-        <v>66.94197463240423</v>
+        <v>69.44229240341997</v>
       </c>
       <c r="I15" t="n">
-        <v>-6.692142766583846</v>
+        <v>0.391203911973876</v>
       </c>
       <c r="J15" t="n">
-        <v>-6.108594804165955</v>
+        <v>-2.709019677828298</v>
       </c>
       <c r="K15" t="n">
-        <v>-3.036326780622455</v>
+        <v>-6.035174089862043</v>
       </c>
       <c r="L15" t="n">
-        <v>80.06566405296326</v>
+        <v>97.22698211669922</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B16" t="n">
-        <v>31.09340785783231</v>
+        <v>37.95246917470779</v>
       </c>
       <c r="C16" t="n">
-        <v>70.99756997985759</v>
+        <v>72.27333596157473</v>
       </c>
       <c r="D16" t="n">
-        <v>-6.656195515776425</v>
+        <v>0.7310064961529686</v>
       </c>
       <c r="E16" t="n">
-        <v>-5.982662971480121</v>
+        <v>-6.445195760052371</v>
       </c>
       <c r="F16" t="n">
-        <v>89.45211935043335</v>
+        <v>104.5116158723831</v>
       </c>
       <c r="G16" t="n">
-        <v>30.3120461043778</v>
+        <v>37.83019332237346</v>
       </c>
       <c r="H16" t="n">
-        <v>69.21343663480525</v>
+        <v>72.04048460966227</v>
       </c>
       <c r="I16" t="n">
-        <v>-6.488928658977612</v>
+        <v>0.728651328114558</v>
       </c>
       <c r="J16" t="n">
-        <v>-2.625501860007036</v>
+        <v>-1.44180517774439</v>
       </c>
       <c r="K16" t="n">
-        <v>-4.850337260100135</v>
+        <v>-5.860694858773082</v>
       </c>
       <c r="L16" t="n">
-        <v>85.56071496009827</v>
+        <v>103.2968292236328</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B17" t="n">
-        <v>32.20565097363226</v>
+        <v>39.37811591648713</v>
       </c>
       <c r="C17" t="n">
-        <v>72.71747930781416</v>
+        <v>74.37442665739427</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.317331177193699</v>
+        <v>1.119614283418739</v>
       </c>
       <c r="E17" t="n">
-        <v>-5.383819784203439</v>
+        <v>-5.809995054054589</v>
       </c>
       <c r="F17" t="n">
-        <v>93.22197932004929</v>
+        <v>109.0621618032455</v>
       </c>
       <c r="G17" t="n">
-        <v>31.5607398441365</v>
+        <v>39.40622500318553</v>
       </c>
       <c r="H17" t="n">
-        <v>71.26132766061156</v>
+        <v>74.42751698836619</v>
       </c>
       <c r="I17" t="n">
-        <v>-6.190827999592402</v>
+        <v>1.120413492172864</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.936803997128449</v>
+        <v>2.594581529609554</v>
       </c>
       <c r="K17" t="n">
-        <v>-2.781746060624252</v>
+        <v>-8.280537092679841</v>
       </c>
       <c r="L17" t="n">
-        <v>90.91268944740295</v>
+        <v>109.2681999206543</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B18" t="n">
-        <v>33.20077226741804</v>
+        <v>40.66598646208161</v>
       </c>
       <c r="C18" t="n">
-        <v>74.20380672758927</v>
+        <v>76.23982484094809</v>
       </c>
       <c r="D18" t="n">
-        <v>-5.887702313787974</v>
+        <v>1.560623083942938</v>
       </c>
       <c r="E18" t="n">
-        <v>-4.762842460047004</v>
+        <v>-5.125729171041698</v>
       </c>
       <c r="F18" t="n">
-        <v>96.75403422117233</v>
+        <v>113.3407052159309</v>
       </c>
       <c r="G18" t="n">
-        <v>32.70700815622536</v>
+        <v>40.86750459450587</v>
       </c>
       <c r="H18" t="n">
-        <v>73.10024273875044</v>
+        <v>76.61762723687978</v>
       </c>
       <c r="I18" t="n">
-        <v>-5.800140010221092</v>
+        <v>1.568356668608039</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.7614292659290338</v>
+        <v>2.3340982807496</v>
       </c>
       <c r="K18" t="n">
-        <v>-3.135847663060898</v>
+        <v>-6.249811359600706</v>
       </c>
       <c r="L18" t="n">
-        <v>96.10983395576477</v>
+        <v>115.1377754211426</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B19" t="n">
-        <v>34.08256552897463</v>
+        <v>41.82006369806206</v>
       </c>
       <c r="C19" t="n">
-        <v>75.4781175208816</v>
+        <v>77.88735795456604</v>
       </c>
       <c r="D19" t="n">
-        <v>-5.371888711386704</v>
+        <v>2.054732986683434</v>
       </c>
       <c r="E19" t="n">
-        <v>-4.131444895033852</v>
+        <v>-4.406352341719376</v>
       </c>
       <c r="F19" t="n">
-        <v>100.0573494434357</v>
+        <v>117.3558022975922</v>
       </c>
       <c r="G19" t="n">
-        <v>33.75157581675575</v>
+        <v>42.21592290370524</v>
       </c>
       <c r="H19" t="n">
-        <v>74.74511869848305</v>
+        <v>78.62462195952186</v>
       </c>
       <c r="I19" t="n">
-        <v>-5.319720106381245</v>
+        <v>2.074182621523541</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6424210080266849</v>
+        <v>4.878046471233227</v>
       </c>
       <c r="K19" t="n">
-        <v>-2.676769608168425</v>
+        <v>-6.891376250905751</v>
       </c>
       <c r="L19" t="n">
-        <v>101.1426258087158</v>
+        <v>120.9013977050781</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B20" t="n">
-        <v>34.85522711483112</v>
+        <v>42.84482031128956</v>
       </c>
       <c r="C20" t="n">
-        <v>76.5616685062319</v>
+        <v>79.33483567952138</v>
       </c>
       <c r="D20" t="n">
-        <v>-4.774751108100355</v>
+        <v>2.602443888905089</v>
       </c>
       <c r="E20" t="n">
-        <v>-3.500566792320569</v>
+        <v>-3.665372765992267</v>
       </c>
       <c r="F20" t="n">
-        <v>103.1415777206421</v>
+        <v>121.1167271137238</v>
       </c>
       <c r="G20" t="n">
-        <v>34.69572345247781</v>
+        <v>43.45356893499627</v>
       </c>
       <c r="H20" t="n">
-        <v>76.21130881750022</v>
+        <v>80.4620424616019</v>
       </c>
       <c r="I20" t="n">
-        <v>-4.75290100550144</v>
+        <v>2.639419983661343</v>
       </c>
       <c r="J20" t="n">
-        <v>8.804224115684887</v>
+        <v>6.546311277347238</v>
       </c>
       <c r="K20" t="n">
-        <v>-8.954580260379982</v>
+        <v>-6.546842077772761</v>
       </c>
       <c r="L20" t="n">
-        <v>106.0037751197815</v>
+        <v>126.554500579834</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B21" t="n">
-        <v>35.5233083131959</v>
+        <v>43.74516469305438</v>
       </c>
       <c r="C21" t="n">
-        <v>77.47540131647709</v>
+        <v>80.60002339414352</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.101335960962701</v>
+        <v>3.204068572933717</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.880414895574155</v>
+        <v>-2.91578082003992</v>
       </c>
       <c r="F21" t="n">
-        <v>106.0169587731361</v>
+        <v>124.6334758400917</v>
       </c>
       <c r="G21" t="n">
-        <v>35.54128298783034</v>
+        <v>44.58272495099982</v>
       </c>
       <c r="H21" t="n">
-        <v>77.51460360919593</v>
+        <v>82.14321969613675</v>
       </c>
       <c r="I21" t="n">
-        <v>-4.103411223176875</v>
+        <v>3.265414793007436</v>
       </c>
       <c r="J21" t="n">
-        <v>11.98689558311575</v>
+        <v>15.83508237115742</v>
       </c>
       <c r="K21" t="n">
-        <v>-10.25115260178631</v>
+        <v>-13.73433976052018</v>
       </c>
       <c r="L21" t="n">
-        <v>110.6882183551788</v>
+        <v>132.0921020507812</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B22" t="n">
-        <v>36.09167291442412</v>
+        <v>44.52639147266762</v>
       </c>
       <c r="C22" t="n">
-        <v>78.23991896721151</v>
+        <v>81.70060840990136</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.35678731937662</v>
+        <v>3.859747490002989</v>
       </c>
       <c r="E22" t="n">
-        <v>-2.280485135245613</v>
+        <v>-2.169983530466105</v>
       </c>
       <c r="F22" t="n">
-        <v>108.6943194270134</v>
+        <v>127.9167638421059</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2906284256927</v>
+        <v>45.60591598733066</v>
       </c>
       <c r="H22" t="n">
-        <v>78.67121687674987</v>
+        <v>83.68140691443578</v>
       </c>
       <c r="I22" t="n">
-        <v>-3.375291624758362</v>
+        <v>3.953325520875423</v>
       </c>
       <c r="J22" t="n">
-        <v>6.082978953432057</v>
+        <v>19.50495290602528</v>
       </c>
       <c r="K22" t="n">
-        <v>-2.476404760556565</v>
+        <v>-15.2363277996144</v>
       </c>
       <c r="L22" t="n">
-        <v>115.1931278705597</v>
+        <v>137.5092735290527</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B23" t="n">
-        <v>36.56545889134948</v>
+        <v>45.19413762102163</v>
       </c>
       <c r="C23" t="n">
-        <v>78.87544951269686</v>
+        <v>82.65415930531636</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.546266874782809</v>
+        <v>4.569465115906025</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.709567497910527</v>
+        <v>-1.439734281261501</v>
       </c>
       <c r="F23" t="n">
-        <v>111.185074031353</v>
+        <v>130.9780277609825</v>
       </c>
       <c r="G23" t="n">
-        <v>36.94665876890706</v>
+        <v>46.52592551370476</v>
       </c>
       <c r="H23" t="n">
-        <v>79.69773679168007</v>
+        <v>85.08982495659589</v>
       </c>
       <c r="I23" t="n">
-        <v>-2.572812052946176</v>
+        <v>4.704118826270682</v>
       </c>
       <c r="J23" t="n">
-        <v>7.341080459717278</v>
+        <v>12.92305612663846</v>
       </c>
       <c r="K23" t="n">
-        <v>-1.894768268810874</v>
+        <v>-6.441636818473446</v>
       </c>
       <c r="L23" t="n">
-        <v>119.5178956985474</v>
+        <v>142.8012886047363</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B24" t="n">
-        <v>36.95004395153364</v>
+        <v>45.75434227135548</v>
       </c>
       <c r="C24" t="n">
-        <v>79.40180009844106</v>
+        <v>83.47807918717066</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.674882023311786</v>
+        <v>5.333068000975798</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.175737508840648</v>
+        <v>-0.7360663895480286</v>
       </c>
       <c r="F24" t="n">
-        <v>113.5012245178223</v>
+        <v>133.8294230699539</v>
       </c>
       <c r="G24" t="n">
-        <v>37.51278097172949</v>
+        <v>47.34580741366081</v>
       </c>
       <c r="H24" t="n">
-        <v>80.61106340660362</v>
+        <v>86.38168235526075</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.700389925825092</v>
+        <v>5.518567155892303</v>
       </c>
       <c r="J24" t="n">
-        <v>7.279113576748939</v>
+        <v>14.42049474061643</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.03841230759252845</v>
+        <v>-5.702810362940063</v>
       </c>
       <c r="L24" t="n">
-        <v>123.6641557216644</v>
+        <v>147.9637413024902</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B25" t="n">
-        <v>37.25101350402231</v>
+        <v>46.21321062375109</v>
       </c>
       <c r="C25" t="n">
-        <v>79.83830216533475</v>
+        <v>84.1895578111646</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.7476201626578376</v>
+        <v>6.150284497462599</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.6863367749525509</v>
+        <v>-0.0692255202498373</v>
       </c>
       <c r="F25" t="n">
-        <v>115.6553587317467</v>
+        <v>136.4838274121284</v>
       </c>
       <c r="G25" t="n">
-        <v>37.99288479471285</v>
+        <v>48.06893584694912</v>
       </c>
       <c r="H25" t="n">
-        <v>81.42831915286028</v>
+        <v>87.57025099069827</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.7625093665437226</v>
+        <v>6.397253663156519</v>
       </c>
       <c r="J25" t="n">
-        <v>8.703718248815735</v>
+        <v>14.42730291122327</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2733501000712391</v>
+        <v>-3.470728122720528</v>
       </c>
       <c r="L25" t="n">
-        <v>127.6357629299164</v>
+        <v>152.9930152893066</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B26" t="n">
-        <v>37.47413213812481</v>
+        <v>46.5771793046443</v>
       </c>
       <c r="C26" t="n">
-        <v>80.20374879690084</v>
+        <v>84.80552015959847</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2307093098416394</v>
+        <v>7.020745866477421</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.2479367729205748</v>
+        <v>0.5513907994220091</v>
       </c>
       <c r="F26" t="n">
-        <v>117.6606534719467</v>
+        <v>138.9548361301422</v>
       </c>
       <c r="G26" t="n">
-        <v>38.39131892043434</v>
+        <v>48.69900621303332</v>
       </c>
       <c r="H26" t="n">
-        <v>82.16675138271263</v>
+        <v>88.66884201250899</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2363559657471734</v>
+        <v>7.340576472771078</v>
       </c>
       <c r="J26" t="n">
-        <v>10.07696011453443</v>
+        <v>16.11289555837155</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5674213424777861</v>
+        <v>-2.934982976411511</v>
       </c>
       <c r="L26" t="n">
-        <v>131.4388077259064</v>
+        <v>157.8863372802734</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B27" t="n">
-        <v>37.6253166397716</v>
+        <v>46.85288629415884</v>
       </c>
       <c r="C27" t="n">
-        <v>80.51632838374668</v>
+        <v>85.34257125799654</v>
       </c>
       <c r="D27" t="n">
-        <v>1.255526336255743</v>
+        <v>7.944009270958287</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1336999719177214</v>
+        <v>1.117301284300588</v>
       </c>
       <c r="F27" t="n">
-        <v>119.5308713316917</v>
+        <v>141.2567681074142</v>
       </c>
       <c r="G27" t="n">
-        <v>38.71286252940088</v>
+        <v>49.24006492807237</v>
       </c>
       <c r="H27" t="n">
-        <v>82.84362313637675</v>
+        <v>89.69081912027883</v>
       </c>
       <c r="I27" t="n">
-        <v>1.291816861579134</v>
+        <v>8.348760625659924</v>
       </c>
       <c r="J27" t="n">
-        <v>12.20704447342378</v>
+        <v>17.74151519659493</v>
       </c>
       <c r="K27" t="n">
-        <v>0.02625986414867043</v>
+        <v>-2.379054768067007</v>
       </c>
       <c r="L27" t="n">
-        <v>135.0816068649292</v>
+        <v>162.6421051025391</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B28" t="n">
-        <v>37.71061179496347</v>
+        <v>47.04714126856729</v>
       </c>
       <c r="C28" t="n">
-        <v>80.79355754137686</v>
+        <v>85.81694367746461</v>
       </c>
       <c r="D28" t="n">
-        <v>2.322525694821369</v>
+        <v>8.919581842633105</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4536679921194064</v>
+        <v>1.620993019017028</v>
       </c>
       <c r="F28" t="n">
-        <v>121.2803630232811</v>
+        <v>143.404659807682</v>
       </c>
       <c r="G28" t="n">
-        <v>38.96269685331959</v>
+        <v>49.69652582987292</v>
       </c>
       <c r="H28" t="n">
-        <v>83.47610235817838</v>
+        <v>90.64958769253066</v>
       </c>
       <c r="I28" t="n">
-        <v>2.399639259988254</v>
+        <v>9.421873837215196</v>
       </c>
       <c r="J28" t="n">
-        <v>10.65317729503711</v>
+        <v>20.22820199674432</v>
       </c>
       <c r="K28" t="n">
-        <v>3.083091979982411</v>
+        <v>-2.736061335122862</v>
       </c>
       <c r="L28" t="n">
-        <v>138.5747077465057</v>
+        <v>167.2601280212402</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B29" t="n">
-        <v>37.7361678445486</v>
+        <v>47.16689933881312</v>
       </c>
       <c r="C29" t="n">
-        <v>81.05221390576605</v>
+        <v>86.24444407367366</v>
       </c>
       <c r="D29" t="n">
-        <v>3.427716470148489</v>
+        <v>9.94694629445023</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7079673098370094</v>
+        <v>2.055979740389631</v>
       </c>
       <c r="F29" t="n">
-        <v>122.9240655303001</v>
+        <v>145.4142694473267</v>
       </c>
       <c r="G29" t="n">
-        <v>39.14637564117176</v>
+        <v>50.0731718515591</v>
       </c>
       <c r="H29" t="n">
-        <v>84.08115061323279</v>
+        <v>91.55854910711855</v>
       </c>
       <c r="I29" t="n">
-        <v>3.555810889028792</v>
+        <v>10.55984510710406</v>
       </c>
       <c r="J29" t="n">
-        <v>15.65577074704103</v>
+        <v>18.54338552687326</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.5082175687428219</v>
+        <v>1.006808661251288</v>
       </c>
       <c r="L29" t="n">
-        <v>141.9308903217316</v>
+        <v>171.7417602539062</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B30" t="n">
-        <v>37.70821977079174</v>
+        <v>47.21923608892311</v>
       </c>
       <c r="C30" t="n">
-        <v>81.30826869889769</v>
+        <v>86.64040060798628</v>
       </c>
       <c r="D30" t="n">
-        <v>4.567456964033441</v>
+        <v>11.0255878482913</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8935583428274256</v>
+        <v>2.416850185195571</v>
       </c>
       <c r="F30" t="n">
-        <v>124.4775037765503</v>
+        <v>147.3020747303963</v>
       </c>
       <c r="G30" t="n">
-        <v>39.26979423973023</v>
+        <v>50.37517897344573</v>
       </c>
       <c r="H30" t="n">
-        <v>84.67541032705108</v>
+        <v>92.43109479236567</v>
       </c>
       <c r="I30" t="n">
-        <v>4.756604694325779</v>
+        <v>11.76249357569371</v>
       </c>
       <c r="J30" t="n">
-        <v>16.74875078235079</v>
+        <v>24.2900266278548</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.2853962880410066</v>
+        <v>-2.768526787963445</v>
       </c>
       <c r="L30" t="n">
-        <v>145.1651637554169</v>
+        <v>176.0902671813965</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B31" t="n">
-        <v>37.63306922278267</v>
+        <v>47.21132483714238</v>
       </c>
       <c r="C31" t="n">
-        <v>81.57682547474236</v>
+        <v>87.01961499282591</v>
       </c>
       <c r="D31" t="n">
-        <v>5.738483518576856</v>
+        <v>12.15502215842656</v>
       </c>
       <c r="E31" t="n">
-        <v>1.008412171528576</v>
+        <v>2.699312409932027</v>
       </c>
       <c r="F31" t="n">
-        <v>125.9567903876305</v>
+        <v>149.0852743983269</v>
       </c>
       <c r="G31" t="n">
-        <v>39.33915982804758</v>
+        <v>50.60811942325662</v>
       </c>
       <c r="H31" t="n">
-        <v>85.27510091238689</v>
+        <v>93.28056526509681</v>
       </c>
       <c r="I31" t="n">
-        <v>5.998636969297387</v>
+        <v>13.02956049439292</v>
       </c>
       <c r="J31" t="n">
-        <v>17.87438333782273</v>
+        <v>25.60700188420185</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.1925172440725333</v>
+        <v>-2.214211910698189</v>
       </c>
       <c r="L31" t="n">
-        <v>148.2947638034821</v>
+        <v>180.31103515625</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B32" t="n">
-        <v>37.51706709036858</v>
+        <v>47.15041586592794</v>
       </c>
       <c r="C32" t="n">
-        <v>81.87206625962428</v>
+        <v>87.39631754391758</v>
       </c>
       <c r="D32" t="n">
-        <v>6.937936218857907</v>
+        <v>13.33482420418356</v>
       </c>
       <c r="E32" t="n">
-        <v>1.051553976319056</v>
+        <v>2.900228827773887</v>
       </c>
       <c r="F32" t="n">
-        <v>127.3786235451698</v>
+        <v>150.781786441803</v>
       </c>
       <c r="G32" t="n">
-        <v>39.36096207950109</v>
+        <v>50.77795745377108</v>
       </c>
       <c r="H32" t="n">
-        <v>85.89592804931095</v>
+        <v>94.12019835583641</v>
       </c>
       <c r="I32" t="n">
-        <v>7.278923050212781</v>
+        <v>14.36074578894329</v>
       </c>
       <c r="J32" t="n">
-        <v>17.15004722638063</v>
+        <v>26.96121482248313</v>
       </c>
       <c r="K32" t="n">
-        <v>1.653299560109701</v>
+        <v>-1.808380886365935</v>
       </c>
       <c r="L32" t="n">
-        <v>151.3391599655151</v>
+        <v>184.411735534668</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B33" t="n">
-        <v>37.36659926070372</v>
+        <v>47.04381743619871</v>
       </c>
       <c r="C33" t="n">
-        <v>82.2072009042118</v>
+        <v>87.78412782717889</v>
       </c>
       <c r="D33" t="n">
-        <v>8.163380236682379</v>
+        <v>14.56465822256371</v>
       </c>
       <c r="E33" t="n">
-        <v>1.023109803880779</v>
+        <v>3.017647237420661</v>
       </c>
       <c r="F33" t="n">
-        <v>128.7602902054787</v>
+        <v>152.410250723362</v>
       </c>
       <c r="G33" t="n">
-        <v>39.34194435857267</v>
+        <v>50.89105638313849</v>
       </c>
       <c r="H33" t="n">
-        <v>86.55299620077325</v>
+        <v>94.96310551022707</v>
       </c>
       <c r="I33" t="n">
-        <v>8.594928556615498</v>
+        <v>15.75575459646465</v>
       </c>
       <c r="J33" t="n">
-        <v>14.41333063084411</v>
+        <v>26.21096208457915</v>
       </c>
       <c r="K33" t="n">
-        <v>5.416849539083154</v>
+        <v>0.5817474631883037</v>
       </c>
       <c r="L33" t="n">
-        <v>154.3200492858887</v>
+        <v>188.4026260375977</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B34" t="n">
-        <v>37.18807371396998</v>
+        <v>46.89887867038714</v>
       </c>
       <c r="C34" t="n">
-        <v>82.59442842984855</v>
+        <v>88.19601900821053</v>
       </c>
       <c r="D34" t="n">
-        <v>9.412823540830098</v>
+        <v>15.8443079540689</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9243387459696564</v>
+        <v>3.050820364495287</v>
       </c>
       <c r="F34" t="n">
-        <v>130.1196644306183</v>
+        <v>153.9900259971619</v>
       </c>
       <c r="G34" t="n">
-        <v>39.28907739495488</v>
+        <v>50.95418879765953</v>
       </c>
       <c r="H34" t="n">
-        <v>87.26074160042742</v>
+        <v>95.8222612384952</v>
       </c>
       <c r="I34" t="n">
-        <v>9.944617068503899</v>
+        <v>17.21435313057179</v>
       </c>
       <c r="J34" t="n">
-        <v>13.18193450379734</v>
+        <v>23.16555132753959</v>
       </c>
       <c r="K34" t="n">
-        <v>7.584990792866384</v>
+        <v>5.14055102331201</v>
       </c>
       <c r="L34" t="n">
-        <v>157.2613613605499</v>
+        <v>192.2969055175781</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B35" t="n">
-        <v>36.98790954798916</v>
+        <v>46.72297499397698</v>
       </c>
       <c r="C35" t="n">
-        <v>83.04491049241632</v>
+        <v>88.64429151226896</v>
       </c>
       <c r="D35" t="n">
-        <v>10.6847322135076</v>
+        <v>17.17370767240946</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7576535847671835</v>
+        <v>3.000217816488501</v>
       </c>
       <c r="F35" t="n">
-        <v>131.4752058386803</v>
+        <v>155.5411919951439</v>
       </c>
       <c r="G35" t="n">
-        <v>39.20953391717236</v>
+        <v>50.97450274527767</v>
       </c>
       <c r="H35" t="n">
-        <v>88.03288086276724</v>
+        <v>96.7104231189867</v>
       </c>
       <c r="I35" t="n">
-        <v>11.32649493418603</v>
+        <v>18.73641841099977</v>
       </c>
       <c r="J35" t="n">
-        <v>10.53469710115306</v>
+        <v>21.82741152416063</v>
       </c>
       <c r="K35" t="n">
-        <v>11.08564651495203</v>
+        <v>7.861912382948294</v>
       </c>
       <c r="L35" t="n">
-        <v>160.1892533302307</v>
+        <v>196.110668182373</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B36" t="n">
-        <v>36.77252929020101</v>
+        <v>46.52349552113176</v>
       </c>
       <c r="C36" t="n">
-        <v>83.56875065539455</v>
+        <v>89.1405538766796</v>
       </c>
       <c r="D36" t="n">
-        <v>11.97804226748578</v>
+        <v>18.55297321814709</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5266417418441804</v>
+        <v>2.867525440167192</v>
       </c>
       <c r="F36" t="n">
-        <v>132.8459639549255</v>
+        <v>157.0845480561256</v>
       </c>
       <c r="G36" t="n">
-        <v>39.11066735850467</v>
+        <v>50.95954843643019</v>
       </c>
       <c r="H36" t="n">
-        <v>88.88237147505414</v>
+        <v>97.64017776492226</v>
       </c>
       <c r="I36" t="n">
-        <v>12.73965201122516</v>
+        <v>20.32201421581745</v>
       </c>
       <c r="J36" t="n">
-        <v>14.38907876825045</v>
+        <v>18.8706215966307</v>
       </c>
       <c r="K36" t="n">
-        <v>8.010344797365965</v>
+        <v>12.07108708287911</v>
       </c>
       <c r="L36" t="n">
-        <v>163.1321144104004</v>
+        <v>199.8634490966797</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B37" t="n">
-        <v>36.54835200856295</v>
+        <v>46.30783275710031</v>
       </c>
       <c r="C37" t="n">
-        <v>84.17498847128414</v>
+        <v>89.69570816598652</v>
       </c>
       <c r="D37" t="n">
-        <v>13.29216992967017</v>
+        <v>19.98243328271733</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2360624974537231</v>
+        <v>2.655640648531637</v>
       </c>
       <c r="F37" t="n">
-        <v>134.251572906971</v>
+        <v>158.6416148543358</v>
       </c>
       <c r="G37" t="n">
-        <v>38.99999225307309</v>
+        <v>50.91724775335254</v>
       </c>
       <c r="H37" t="n">
-        <v>89.82139324677243</v>
+        <v>98.62388980835391</v>
       </c>
       <c r="I37" t="n">
-        <v>14.183800248017</v>
+        <v>21.97145591994806</v>
       </c>
       <c r="J37" t="n">
-        <v>16.11645711097677</v>
+        <v>23.32396793769812</v>
       </c>
       <c r="K37" t="n">
-        <v>6.998918502473568</v>
+        <v>8.741670392170811</v>
       </c>
       <c r="L37" t="n">
-        <v>166.1205613613129</v>
+        <v>203.5782318115234</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B38" t="n">
-        <v>36.32179043256151</v>
+        <v>46.08337498408688</v>
       </c>
       <c r="C38" t="n">
-        <v>84.87160657781986</v>
+        <v>90.31994633891532</v>
       </c>
       <c r="D38" t="n">
-        <v>14.62701961362257</v>
+        <v>21.46266013691243</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.1081612057033112</v>
+        <v>2.368650912941511</v>
       </c>
       <c r="F38" t="n">
-        <v>135.7122554183006</v>
+        <v>160.2346323728561</v>
       </c>
       <c r="G38" t="n">
-        <v>38.88516981348979</v>
+        <v>50.85590525765208</v>
       </c>
       <c r="H38" t="n">
-        <v>90.86134782506865</v>
+        <v>99.67374645355765</v>
       </c>
       <c r="I38" t="n">
-        <v>15.65930904747109</v>
+        <v>23.68539654217845</v>
       </c>
       <c r="J38" t="n">
-        <v>19.29991270224928</v>
+        <v>25.35176720186253</v>
       </c>
       <c r="K38" t="n">
-        <v>4.481702914425053</v>
+        <v>7.715037266917239</v>
       </c>
       <c r="L38" t="n">
-        <v>169.1874423027039</v>
+        <v>207.281852722168</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B39" t="n">
-        <v>36.09924980912688</v>
+        <v>45.85750131437068</v>
       </c>
       <c r="C39" t="n">
-        <v>85.6655400753896</v>
+        <v>91.02275403993298</v>
       </c>
       <c r="D39" t="n">
-        <v>15.98299062570808</v>
+        <v>22.99450030601682</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.4989588344471301</v>
+        <v>2.011805554603384</v>
       </c>
       <c r="F39" t="n">
-        <v>137.2488216757774</v>
+        <v>161.8865612149239</v>
       </c>
       <c r="G39" t="n">
-        <v>38.77399697719627</v>
+        <v>50.78419497134371</v>
       </c>
       <c r="H39" t="n">
-        <v>92.01286479624437</v>
+        <v>100.8017697323607</v>
       </c>
       <c r="I39" t="n">
-        <v>17.16723847405489</v>
+        <v>25.46491093799375</v>
       </c>
       <c r="J39" t="n">
-        <v>21.28907576483529</v>
+        <v>29.04011999654393</v>
       </c>
       <c r="K39" t="n">
-        <v>3.124660224622911</v>
+        <v>4.91416946185559</v>
       </c>
       <c r="L39" t="n">
-        <v>172.3678362369537</v>
+        <v>211.0051651000977</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B40" t="n">
-        <v>35.88712985688779</v>
+        <v>45.63757956876405</v>
       </c>
       <c r="C40" t="n">
-        <v>86.56270617655886</v>
+        <v>91.81291831564671</v>
       </c>
       <c r="D40" t="n">
-        <v>17.36098196906059</v>
+        <v>24.57910415132275</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.9281500437708203</v>
+        <v>1.591480985430422</v>
       </c>
       <c r="F40" t="n">
-        <v>138.8826679587364</v>
+        <v>163.6210830211639</v>
       </c>
       <c r="G40" t="n">
-        <v>38.67440060583528</v>
+        <v>50.71115767968569</v>
       </c>
       <c r="H40" t="n">
-        <v>93.28583226208926</v>
+        <v>102.0198577955162</v>
       </c>
       <c r="I40" t="n">
-        <v>18.7093694664263</v>
+        <v>27.31158922144609</v>
       </c>
       <c r="J40" t="n">
-        <v>20.17153856923074</v>
+        <v>31.36366317287095</v>
       </c>
       <c r="K40" t="n">
-        <v>4.857910953413057</v>
+        <v>3.377019178820948</v>
       </c>
       <c r="L40" t="n">
-        <v>175.6990518569946</v>
+        <v>214.7832870483398</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B41" t="n">
-        <v>35.6918297195195</v>
+        <v>45.43096690292832</v>
       </c>
       <c r="C41" t="n">
-        <v>87.5680304102724</v>
+        <v>92.69854649715796</v>
       </c>
       <c r="D41" t="n">
-        <v>18.76239679410936</v>
+        <v>26.21795454777277</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.386478556381874</v>
+        <v>1.115130316358332</v>
       </c>
       <c r="F41" t="n">
-        <v>140.6357783675194</v>
+        <v>165.4625982642174</v>
       </c>
       <c r="G41" t="n">
-        <v>38.59443687368142</v>
+        <v>50.6462009939</v>
       </c>
       <c r="H41" t="n">
-        <v>94.68942467731159</v>
+        <v>103.3398480769476</v>
       </c>
       <c r="I41" t="n">
-        <v>20.2882324711193</v>
+        <v>29.22763670235349</v>
       </c>
       <c r="J41" t="n">
-        <v>21.7276702831632</v>
+        <v>30.13863683466293</v>
       </c>
       <c r="K41" t="n">
-        <v>3.920862048942016</v>
+        <v>5.303526848923102</v>
       </c>
       <c r="L41" t="n">
-        <v>179.2206263542175</v>
+        <v>218.6558494567871</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B42" t="n">
-        <v>35.51975583605706</v>
+        <v>45.24501441766186</v>
       </c>
       <c r="C42" t="n">
-        <v>88.68548387644834</v>
+        <v>93.68708614557811</v>
       </c>
       <c r="D42" t="n">
-        <v>20.18914540424724</v>
+        <v>27.91289431166486</v>
       </c>
       <c r="E42" t="n">
-        <v>-1.863660233673116</v>
+        <v>0.5912344136731917</v>
       </c>
       <c r="F42" t="n">
-        <v>142.5307248830795</v>
+        <v>167.436229288578</v>
       </c>
       <c r="G42" t="n">
-        <v>38.54229680382326</v>
+        <v>50.59910861118423</v>
       </c>
       <c r="H42" t="n">
-        <v>96.23214352973977</v>
+        <v>104.7736001050976</v>
       </c>
       <c r="I42" t="n">
-        <v>21.90713353936219</v>
+        <v>31.21598233764966</v>
       </c>
       <c r="J42" t="n">
-        <v>26.62762764498752</v>
+        <v>31.96308885409509</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.3348749073475474</v>
+        <v>4.115517455254615</v>
       </c>
       <c r="L42" t="n">
-        <v>182.9743266105652</v>
+        <v>222.6672973632812</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B43" t="n">
-        <v>35.37733296577623</v>
+        <v>45.08707390593511</v>
       </c>
       <c r="C43" t="n">
-        <v>89.91812070085572</v>
+        <v>94.7853525488897</v>
       </c>
       <c r="D43" t="n">
-        <v>21.64364857815559</v>
+        <v>29.66615185453</v>
       </c>
       <c r="E43" t="n">
-        <v>-2.348436606340741</v>
+        <v>0.0292389614009565</v>
       </c>
       <c r="F43" t="n">
-        <v>144.5906656384468</v>
+        <v>169.5678172707558</v>
       </c>
       <c r="G43" t="n">
-        <v>38.52631843076895</v>
+        <v>50.58003863828593</v>
       </c>
       <c r="H43" t="n">
-        <v>97.92185731379864</v>
+        <v>106.3330657533599</v>
       </c>
       <c r="I43" t="n">
-        <v>23.57017975132106</v>
+        <v>33.28038342390328</v>
       </c>
       <c r="J43" t="n">
-        <v>22.51197264230167</v>
+        <v>37.59947881273172</v>
       </c>
       <c r="K43" t="n">
-        <v>4.473823206108992</v>
+        <v>-0.9259355308687347</v>
       </c>
       <c r="L43" t="n">
-        <v>187.0041513442993</v>
+        <v>226.8670310974121</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B44" t="n">
-        <v>35.2710187148443</v>
+        <v>44.96450906380728</v>
       </c>
       <c r="C44" t="n">
-        <v>91.26811576546687</v>
+        <v>95.99955694834173</v>
       </c>
       <c r="D44" t="n">
-        <v>23.12883915031966</v>
+        <v>31.4803651494206</v>
       </c>
       <c r="E44" t="n">
-        <v>-2.828627281391491</v>
+        <v>-0.5605064388981091</v>
       </c>
       <c r="F44" t="n">
-        <v>146.8393463492393</v>
+        <v>171.8839247226715</v>
       </c>
       <c r="G44" t="n">
-        <v>38.55500553267243</v>
+        <v>50.59954091891852</v>
       </c>
       <c r="H44" t="n">
-        <v>99.76583712375761</v>
+        <v>108.0303913273587</v>
       </c>
       <c r="I44" t="n">
-        <v>25.2823012744332</v>
+        <v>35.4255402246291</v>
       </c>
       <c r="J44" t="n">
-        <v>27.73643980695459</v>
+        <v>32.95084539616653</v>
       </c>
       <c r="K44" t="n">
-        <v>0.01674689534563356</v>
+        <v>4.303355442253348</v>
       </c>
       <c r="L44" t="n">
-        <v>191.3563306331635</v>
+        <v>231.3096733093262</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B45" t="n">
-        <v>35.20732046136307</v>
+        <v>44.88470918285329</v>
       </c>
       <c r="C45" t="n">
-        <v>92.73679486039016</v>
+        <v>97.33533345779482</v>
       </c>
       <c r="D45" t="n">
-        <v>24.64816486405611</v>
+        <v>33.35860335811295</v>
       </c>
       <c r="E45" t="n">
-        <v>-3.291180468192309</v>
+        <v>-1.166812116429213</v>
       </c>
       <c r="F45" t="n">
-        <v>149.301099717617</v>
+        <v>174.4118338823318</v>
       </c>
       <c r="G45" t="n">
-        <v>38.63705233192732</v>
+        <v>50.66859302930884</v>
       </c>
       <c r="H45" t="n">
-        <v>101.770778041692</v>
+        <v>109.8780517492831</v>
       </c>
       <c r="I45" t="n">
-        <v>27.04927336869073</v>
+        <v>37.65722287945798</v>
       </c>
       <c r="J45" t="n">
-        <v>28.58353428039268</v>
+        <v>38.95059335418861</v>
       </c>
       <c r="K45" t="n">
-        <v>0.03868216963427429</v>
+        <v>-1.098991499299032</v>
       </c>
       <c r="L45" t="n">
-        <v>196.079320192337</v>
+        <v>236.0554695129395</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B46" t="n">
-        <v>35.1928167723481</v>
+        <v>44.85510739923663</v>
       </c>
       <c r="C46" t="n">
-        <v>94.32466335839256</v>
+        <v>98.79776953323213</v>
       </c>
       <c r="D46" t="n">
-        <v>26.20559042371366</v>
+        <v>35.30438607837005</v>
       </c>
       <c r="E46" t="n">
-        <v>-3.722223870475283</v>
+        <v>-1.777715522149379</v>
       </c>
       <c r="F46" t="n">
-        <v>152.000846683979</v>
+        <v>177.1795474886894</v>
       </c>
       <c r="G46" t="n">
-        <v>38.78137783272454</v>
+        <v>50.79860683452164</v>
       </c>
       <c r="H46" t="n">
-        <v>103.942814021087</v>
+        <v>111.8889094607708</v>
       </c>
       <c r="I46" t="n">
-        <v>28.87773690084937</v>
+        <v>39.98237284255842</v>
       </c>
       <c r="J46" t="n">
-        <v>33.18634592045535</v>
+        <v>39.95981713161803</v>
       </c>
       <c r="K46" t="n">
-        <v>-3.564465671286293</v>
+        <v>-1.459437257017768</v>
       </c>
       <c r="L46" t="n">
-        <v>201.22380900383</v>
+        <v>241.1702690124512</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B47" t="n">
-        <v>35.23418059817782</v>
+        <v>44.88320156873854</v>
       </c>
       <c r="C47" t="n">
-        <v>96.03141448261972</v>
+        <v>100.3914271003439</v>
       </c>
       <c r="D47" t="n">
-        <v>27.80559985299436</v>
+        <v>37.32169996645909</v>
       </c>
       <c r="E47" t="n">
-        <v>-4.107100891013893</v>
+        <v>-2.380539913503313</v>
       </c>
       <c r="F47" t="n">
-        <v>154.964094042778</v>
+        <v>180.2157887220383</v>
       </c>
       <c r="G47" t="n">
-        <v>38.99716536776136</v>
+        <v>51.00148512463794</v>
       </c>
       <c r="H47" t="n">
-        <v>106.2874994536535</v>
+        <v>114.0763514398126</v>
       </c>
       <c r="I47" t="n">
-        <v>30.77521762129754</v>
+        <v>42.40923238843412</v>
       </c>
       <c r="J47" t="n">
-        <v>37.1998620319838</v>
+        <v>45.24378226596234</v>
       </c>
       <c r="K47" t="n">
-        <v>-6.417030641841002</v>
+        <v>-6.004899070409479</v>
       </c>
       <c r="L47" t="n">
-        <v>206.8427138328552</v>
+        <v>246.7259521484375</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B48" t="n">
-        <v>35.33820622605195</v>
+        <v>44.9765785763455</v>
       </c>
       <c r="C48" t="n">
-        <v>97.85593171878809</v>
+        <v>102.1203629466639</v>
       </c>
       <c r="D48" t="n">
-        <v>29.45319967817029</v>
+        <v>39.41501241175467</v>
       </c>
       <c r="E48" t="n">
-        <v>-4.430401451955476</v>
+        <v>-2.961952969168827</v>
       </c>
       <c r="F48" t="n">
-        <v>158.2169361710548</v>
+        <v>183.5500009655952</v>
       </c>
       <c r="G48" t="n">
-        <v>39.2939107908675</v>
+        <v>51.28967191821799</v>
       </c>
       <c r="H48" t="n">
-        <v>108.80977451766</v>
+        <v>116.4543875389047</v>
       </c>
       <c r="I48" t="n">
-        <v>32.75014564283192</v>
+        <v>44.94746197334355</v>
       </c>
       <c r="J48" t="n">
-        <v>39.69275712450992</v>
+        <v>49.85462098977081</v>
       </c>
       <c r="K48" t="n">
-        <v>-7.555404318087341</v>
+        <v>-9.745464167063204</v>
       </c>
       <c r="L48" t="n">
-        <v>212.991183757782</v>
+        <v>252.8006782531738</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B49" t="n">
-        <v>35.51183888957578</v>
+        <v>45.14294219361776</v>
       </c>
       <c r="C49" t="n">
-        <v>99.79626703674111</v>
+        <v>103.9881365441895</v>
       </c>
       <c r="D49" t="n">
-        <v>31.15392217729106</v>
+        <v>41.58928215604065</v>
       </c>
       <c r="E49" t="n">
-        <v>-4.675972300309013</v>
+        <v>-3.508013565185024</v>
       </c>
       <c r="F49" t="n">
-        <v>161.786055803299</v>
+        <v>187.2123473286629</v>
       </c>
       <c r="G49" t="n">
-        <v>39.68147723019083</v>
+        <v>51.67620418911418</v>
       </c>
       <c r="H49" t="n">
-        <v>111.5138900688956</v>
+        <v>119.0377037069319</v>
       </c>
       <c r="I49" t="n">
-        <v>34.81187379097394</v>
+        <v>47.60824466328397</v>
       </c>
       <c r="J49" t="n">
-        <v>42.52924426710228</v>
+        <v>52.73855015938382</v>
       </c>
       <c r="K49" t="n">
-        <v>-8.809888048050126</v>
+        <v>-11.58168736837205</v>
       </c>
       <c r="L49" t="n">
-        <v>219.7265973091125</v>
+        <v>259.4790153503418</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B50" t="n">
-        <v>35.76220646011388</v>
+        <v>45.39014398459341</v>
       </c>
       <c r="C50" t="n">
-        <v>101.8495973124623</v>
+        <v>105.9978102634778</v>
       </c>
       <c r="D50" t="n">
-        <v>32.91382934246298</v>
+        <v>43.84996682640435</v>
       </c>
       <c r="E50" t="n">
-        <v>-4.826911885009089</v>
+        <v>-4.004208937730112</v>
       </c>
       <c r="F50" t="n">
-        <v>165.6987212300301</v>
+        <v>191.2337121367455</v>
       </c>
       <c r="G50" t="n">
-        <v>40.1701566951564</v>
+        <v>52.17479533071995</v>
       </c>
       <c r="H50" t="n">
-        <v>114.4032957793948</v>
+        <v>121.841738547439</v>
       </c>
       <c r="I50" t="n">
-        <v>36.9706965256462</v>
+        <v>50.40440156354354</v>
       </c>
       <c r="J50" t="n">
-        <v>41.26485909291869</v>
+        <v>56.01882190886992</v>
       </c>
       <c r="K50" t="n">
-        <v>-5.700446577307943</v>
+        <v>-13.58746624339464</v>
       </c>
       <c r="L50" t="n">
-        <v>227.1085615158081</v>
+        <v>266.8522911071777</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B51" t="n">
-        <v>36.09665393760542</v>
+        <v>45.72621660561527</v>
       </c>
       <c r="C51" t="n">
-        <v>104.0121596041666</v>
+        <v>108.1519377733008</v>
       </c>
       <c r="D51" t="n">
-        <v>34.73951859192005</v>
+        <v>46.2030272394938</v>
       </c>
       <c r="E51" t="n">
-        <v>-4.865542855661687</v>
+        <v>-4.435482057767636</v>
       </c>
       <c r="F51" t="n">
-        <v>169.9827892780304</v>
+        <v>195.6456995606422</v>
       </c>
       <c r="G51" t="n">
-        <v>40.77073842495055</v>
+        <v>52.79991986775892</v>
       </c>
       <c r="H51" t="n">
-        <v>117.4804888997698</v>
+        <v>124.8827056308849</v>
       </c>
       <c r="I51" t="n">
-        <v>39.23787030144425</v>
+        <v>53.35049162133343</v>
       </c>
       <c r="J51" t="n">
-        <v>43.50071802861427</v>
+        <v>54.65773791971473</v>
       </c>
       <c r="K51" t="n">
-        <v>-5.790901603722958</v>
+        <v>-10.67203713808066</v>
       </c>
       <c r="L51" t="n">
-        <v>235.1989140510559</v>
+        <v>275.0188179016113</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B52" t="n">
-        <v>36.52277887251248</v>
+        <v>46.15940932655764</v>
       </c>
       <c r="C52" t="n">
-        <v>106.2791537116574</v>
+        <v>110.4525340745549</v>
       </c>
       <c r="D52" t="n">
-        <v>36.63812826787804</v>
+        <v>48.6549282288513</v>
       </c>
       <c r="E52" t="n">
-        <v>-4.773358104702936</v>
+        <v>-4.786237775097831</v>
       </c>
       <c r="F52" t="n">
-        <v>174.666702747345</v>
+        <v>200.480633854866</v>
       </c>
       <c r="G52" t="n">
-        <v>41.49458234716073</v>
+        <v>53.56690930589938</v>
       </c>
       <c r="H52" t="n">
-        <v>120.7468114862955</v>
+        <v>128.1775690308574</v>
       </c>
       <c r="I52" t="n">
-        <v>41.62563412176416</v>
+        <v>56.46290032182886</v>
       </c>
       <c r="J52" t="n">
-        <v>47.79824615604387</v>
+        <v>57.28431926630478</v>
       </c>
       <c r="K52" t="n">
-        <v>-7.603550163739243</v>
+        <v>-11.40759910897246</v>
       </c>
       <c r="L52" t="n">
-        <v>244.061723947525</v>
+        <v>284.084098815918</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B53" t="n">
-        <v>37.04846928523311</v>
+        <v>46.69822640111115</v>
       </c>
       <c r="C53" t="n">
-        <v>108.6446134231781</v>
+        <v>112.901032822723</v>
       </c>
       <c r="D53" t="n">
-        <v>38.61734572915741</v>
+        <v>51.21263677981118</v>
       </c>
       <c r="E53" t="n">
-        <v>-4.530935642101255</v>
+        <v>-5.04033581153714</v>
       </c>
       <c r="F53" t="n">
-        <v>179.7794927954674</v>
+        <v>205.7715601921082</v>
       </c>
       <c r="G53" t="n">
-        <v>42.35369782390887</v>
+        <v>54.49207165358691</v>
       </c>
       <c r="H53" t="n">
-        <v>124.2021928542878</v>
+        <v>131.7440006713703</v>
       </c>
       <c r="I53" t="n">
-        <v>44.14723262064886</v>
+        <v>59.7599285464124</v>
       </c>
       <c r="J53" t="n">
-        <v>48.23811911783717</v>
+        <v>62.2675685226725</v>
       </c>
       <c r="K53" t="n">
-        <v>-5.177955826106512</v>
+        <v>-14.10242513745027</v>
       </c>
       <c r="L53" t="n">
-        <v>253.7632865905762</v>
+        <v>294.1611442565918</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B54" t="n">
-        <v>37.68194098452431</v>
+        <v>47.35146548510519</v>
       </c>
       <c r="C54" t="n">
-        <v>111.101244405763</v>
+        <v>115.4982241406916</v>
       </c>
       <c r="D54" t="n">
-        <v>40.68541605311608</v>
+        <v>53.88361648415351</v>
       </c>
       <c r="E54" t="n">
-        <v>-4.11782411538902</v>
+        <v>-5.181063354060399</v>
       </c>
       <c r="F54" t="n">
-        <v>185.3507773280144</v>
+        <v>211.5522427558899</v>
       </c>
       <c r="G54" t="n">
-        <v>43.36082611602388</v>
+        <v>55.59280879549629</v>
       </c>
       <c r="H54" t="n">
-        <v>127.8448406341554</v>
+        <v>135.6002528135604</v>
       </c>
       <c r="I54" t="n">
-        <v>46.8169421437653</v>
+        <v>63.26185594732377</v>
       </c>
       <c r="J54" t="n">
-        <v>51.2475175541022</v>
+        <v>62.90509771769028</v>
       </c>
       <c r="K54" t="n">
-        <v>-4.897993431460492</v>
+        <v>-11.9893869171371</v>
       </c>
       <c r="L54" t="n">
-        <v>264.3721330165863</v>
+        <v>305.3706283569336</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B55" t="n">
-        <v>38.43177634961764</v>
+        <v>48.12825883009775</v>
       </c>
       <c r="C55" t="n">
-        <v>113.6402216585881</v>
+        <v>118.2441722632614</v>
       </c>
       <c r="D55" t="n">
-        <v>42.85115224128357</v>
+        <v>56.67581979337152</v>
       </c>
       <c r="E55" t="n">
-        <v>-3.512389131554158</v>
+        <v>-5.19108310633132</v>
       </c>
       <c r="F55" t="n">
-        <v>191.4107611179352</v>
+        <v>217.8571677803993</v>
       </c>
       <c r="G55" t="n">
-        <v>44.52952543831268</v>
+        <v>56.88776379849961</v>
       </c>
       <c r="H55" t="n">
-        <v>131.670862546845</v>
+        <v>139.7650092850419</v>
       </c>
       <c r="I55" t="n">
-        <v>49.65009830486878</v>
+        <v>66.99100960360049</v>
       </c>
       <c r="J55" t="n">
-        <v>53.8084524036118</v>
+        <v>66.48748738707059</v>
       </c>
       <c r="K55" t="n">
-        <v>-3.699918079014267</v>
+        <v>-12.29004158910519</v>
       </c>
       <c r="L55" t="n">
-        <v>275.959020614624</v>
+        <v>317.8412284851074</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B56" t="n">
-        <v>39.30696215735033</v>
+        <v>49.03811291997128</v>
       </c>
       <c r="C56" t="n">
-        <v>116.2509439752739</v>
+        <v>121.1381110380687</v>
       </c>
       <c r="D56" t="n">
-        <v>45.12394799421905</v>
+        <v>59.59767700768653</v>
       </c>
       <c r="E56" t="n">
-        <v>-2.691617665680774</v>
+        <v>-5.05236051467665</v>
       </c>
       <c r="F56" t="n">
-        <v>197.9902364611626</v>
+        <v>224.7215404510498</v>
       </c>
       <c r="G56" t="n">
-        <v>45.87425774419418</v>
+        <v>58.3969642683777</v>
       </c>
       <c r="H56" t="n">
-        <v>135.6738214868723</v>
+        <v>144.2571404281723</v>
       </c>
       <c r="I56" t="n">
-        <v>52.66312905168957</v>
+        <v>70.97180555002123</v>
       </c>
       <c r="J56" t="n">
-        <v>55.53933021340457</v>
+        <v>69.60201085629782</v>
       </c>
       <c r="K56" t="n">
-        <v>-1.15360274710666</v>
+        <v>-11.51812419735148</v>
       </c>
       <c r="L56" t="n">
-        <v>288.596935749054</v>
+        <v>331.7097969055176</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B57" t="n">
-        <v>40.31692718529091</v>
+        <v>50.09094967665374</v>
       </c>
       <c r="C57" t="n">
-        <v>118.9207411146118</v>
+        <v>124.1783178351851</v>
       </c>
       <c r="D57" t="n">
-        <v>47.51379115243535</v>
+        <v>62.65808344851043</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.630875977702011</v>
+        <v>-4.746063850497485</v>
       </c>
       <c r="F57" t="n">
-        <v>205.1205834746361</v>
+        <v>232.1812871098518</v>
       </c>
       <c r="G57" t="n">
-        <v>47.41047671287962</v>
+        <v>60.14199227157199</v>
       </c>
       <c r="H57" t="n">
-        <v>139.844214847546</v>
+        <v>149.0954250168935</v>
       </c>
       <c r="I57" t="n">
-        <v>55.87359072828872</v>
+        <v>75.23079508049703</v>
       </c>
       <c r="J57" t="n">
-        <v>58.11351133572528</v>
+        <v>71.82229948140503</v>
       </c>
       <c r="K57" t="n">
-        <v>1.119302996120076</v>
+        <v>-9.168815378199618</v>
       </c>
       <c r="L57" t="n">
-        <v>302.3610966205597</v>
+        <v>347.121696472168</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B58" t="n">
-        <v>41.47157749352299</v>
+        <v>51.29714537837557</v>
       </c>
       <c r="C58" t="n">
-        <v>121.6345254686473</v>
+        <v>127.3619610507244</v>
       </c>
       <c r="D58" t="n">
-        <v>50.03127972260462</v>
+        <v>65.86638414623286</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3036146150308028</v>
+        <v>-4.252437227268366</v>
       </c>
       <c r="F58" t="n">
-        <v>212.8337680697441</v>
+        <v>240.2730533480644</v>
       </c>
       <c r="G58" t="n">
-        <v>49.15471372923957</v>
+        <v>62.14614621421309</v>
       </c>
       <c r="H58" t="n">
-        <v>144.1688655305442</v>
+        <v>154.2981582153271</v>
       </c>
       <c r="I58" t="n">
-        <v>59.30020946650092</v>
+        <v>79.79668087883253</v>
       </c>
       <c r="J58" t="n">
-        <v>59.59933730424572</v>
+        <v>75.05529831375557</v>
       </c>
       <c r="K58" t="n">
-        <v>5.105825089846185</v>
+        <v>-7.065345664364642</v>
       </c>
       <c r="L58" t="n">
-        <v>317.3289511203766</v>
+        <v>364.2309379577637</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B59" t="n">
-        <v>42.78133110546195</v>
+        <v>52.66756960748666</v>
       </c>
       <c r="C59" t="n">
-        <v>124.3743836727143</v>
+        <v>130.6849221509881</v>
       </c>
       <c r="D59" t="n">
-        <v>52.68763974886764</v>
+        <v>69.2323573237624</v>
       </c>
       <c r="E59" t="n">
-        <v>1.318990941954034</v>
+        <v>-3.550642811065586</v>
       </c>
       <c r="F59" t="n">
-        <v>221.162345468998</v>
+        <v>249.0342062711716</v>
       </c>
       <c r="G59" t="n">
-        <v>51.12466315781803</v>
+        <v>64.43463167122547</v>
       </c>
       <c r="H59" t="n">
-        <v>148.6302157138101</v>
+        <v>159.8827302368004</v>
       </c>
       <c r="I59" t="n">
-        <v>62.96292717262885</v>
+        <v>84.70034742695204</v>
       </c>
       <c r="J59" t="n">
-        <v>64.24728210828241</v>
+        <v>77.11278085272201</v>
       </c>
       <c r="K59" t="n">
-        <v>6.615089869845292</v>
+        <v>-2.929947737748705</v>
       </c>
       <c r="L59" t="n">
-        <v>333.5801780223846</v>
+        <v>383.2005424499512</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B60" t="n">
-        <v>44.25714870948202</v>
+        <v>54.21362075565683</v>
       </c>
       <c r="C60" t="n">
-        <v>127.1190980533219</v>
+        <v>134.1415888260336</v>
       </c>
       <c r="D60" t="n">
-        <v>55.494745145435</v>
+        <v>72.76619613184045</v>
       </c>
       <c r="E60" t="n">
-        <v>3.268463529421254</v>
+        <v>-2.618573718043692</v>
       </c>
       <c r="F60" t="n">
-        <v>230.1394554376602</v>
+        <v>258.5028319954872</v>
       </c>
       <c r="G60" t="n">
-        <v>53.33926304455639</v>
+        <v>67.03474407241391</v>
       </c>
       <c r="H60" t="n">
-        <v>153.2055093192255</v>
+        <v>165.8650898258233</v>
       </c>
       <c r="I60" t="n">
-        <v>66.8829532678139</v>
+        <v>89.97486732726713</v>
       </c>
       <c r="J60" t="n">
-        <v>66.24644729424173</v>
+        <v>82.84995121200141</v>
       </c>
       <c r="K60" t="n">
-        <v>11.52251000415518</v>
+        <v>-1.52191653662689</v>
       </c>
       <c r="L60" t="n">
-        <v>351.1966829299927</v>
+        <v>404.2027359008789</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B61" t="n">
-        <v>45.9105630603154</v>
+        <v>55.94726059988243</v>
       </c>
       <c r="C61" t="n">
-        <v>129.843586020921</v>
+        <v>137.7246155308829</v>
       </c>
       <c r="D61" t="n">
-        <v>58.46513907216551</v>
+        <v>76.47848997840109</v>
       </c>
       <c r="E61" t="n">
-        <v>5.579539196737706</v>
+        <v>-1.432627957616113</v>
       </c>
       <c r="F61" t="n">
-        <v>239.7988273501396</v>
+        <v>268.7177381515503</v>
       </c>
       <c r="G61" t="n">
-        <v>55.8187734274934</v>
+        <v>69.9760612804931</v>
       </c>
       <c r="H61" t="n">
-        <v>157.8658423246366</v>
+        <v>172.2591246271255</v>
       </c>
       <c r="I61" t="n">
-        <v>71.08282133217817</v>
+        <v>95.65550563130553</v>
       </c>
       <c r="J61" t="n">
-        <v>70.19190504927502</v>
+        <v>85.64762057222845</v>
       </c>
       <c r="K61" t="n">
-        <v>15.30326424878677</v>
+        <v>3.880865897880682</v>
       </c>
       <c r="L61" t="n">
-        <v>370.26260638237</v>
+        <v>427.4191780090332</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B62" t="n">
+        <v>57.88104439479543</v>
+      </c>
+      <c r="C62" t="n">
+        <v>141.4246493435941</v>
+      </c>
+      <c r="D62" t="n">
+        <v>80.3802048610433</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.03255343694797119</v>
+      </c>
+      <c r="F62" t="n">
+        <v>279.7184520363808</v>
+      </c>
+      <c r="G62" t="n">
+        <v>73.29064617532954</v>
+      </c>
+      <c r="H62" t="n">
+        <v>179.075965955504</v>
+      </c>
+      <c r="I62" t="n">
+        <v>101.7797314400385</v>
+      </c>
+      <c r="J62" t="n">
+        <v>90.7706346077718</v>
+      </c>
+      <c r="K62" t="n">
+        <v>8.124300660467455</v>
+      </c>
+      <c r="L62" t="n">
+        <v>453.0412788391113</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
         <v>2020</v>
       </c>
-      <c r="B62" t="n">
-        <v>47.75370372563103</v>
-      </c>
-      <c r="C62" t="n">
-        <v>132.5182336147943</v>
-      </c>
-      <c r="D62" t="n">
-        <v>61.61205748172289</v>
-      </c>
-      <c r="E62" t="n">
-        <v>8.290781374331601</v>
-      </c>
-      <c r="F62" t="n">
-        <v>250.1747761964798</v>
-      </c>
-      <c r="G62" t="n">
-        <v>58.58484741858675</v>
-      </c>
-      <c r="H62" t="n">
-        <v>162.5750442543452</v>
-      </c>
-      <c r="I62" t="n">
-        <v>75.58645099970693</v>
-      </c>
-      <c r="J62" t="n">
-        <v>17.64928148140623</v>
-      </c>
-      <c r="K62" t="n">
-        <v>76.46869111733241</v>
-      </c>
-      <c r="L62" t="n">
-        <v>390.8643152713776</v>
+      <c r="B63" t="n">
+        <v>60.02814874943347</v>
+      </c>
+      <c r="C63" t="n">
+        <v>145.2300231007811</v>
+      </c>
+      <c r="D63" t="n">
+        <v>84.48266371735011</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.80438576117065</v>
+      </c>
+      <c r="F63" t="n">
+        <v>291.5452213287354</v>
+      </c>
+      <c r="G63" t="n">
+        <v>77.01324006851262</v>
+      </c>
+      <c r="H63" t="n">
+        <v>186.3231645024143</v>
+      </c>
+      <c r="I63" t="n">
+        <v>108.3872116338272</v>
+      </c>
+      <c r="J63" t="n">
+        <v>30.73895054459787</v>
+      </c>
+      <c r="K63" t="n">
+        <v>78.80779991934918</v>
+      </c>
+      <c r="L63" t="n">
+        <v>481.2703666687012</v>
       </c>
     </row>
   </sheetData>
